--- a/map_project/list.xlsx
+++ b/map_project/list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenthumeau/Google Drive/Maps/MAPS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vincenthumeau/Desktop/travel-log/map_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16120" yWindow="460" windowWidth="12680" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="4520" yWindow="460" windowWidth="24280" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,17 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="340">
   <si>
     <t>Vietnam</t>
   </si>
   <si>
-    <t>21.052377</t>
-  </si>
-  <si>
-    <t>105.823016</t>
-  </si>
-  <si>
     <t>Hanoi</t>
   </si>
   <si>
@@ -47,24 +41,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>28.6454414</t>
-  </si>
-  <si>
-    <t>77.0907573</t>
-  </si>
-  <si>
-    <t>27.1761745</t>
-  </si>
-  <si>
-    <t>77.980013</t>
-  </si>
-  <si>
-    <t>26.8852108</t>
-  </si>
-  <si>
-    <t>75.7905578</t>
-  </si>
-  <si>
     <t>Agra</t>
   </si>
   <si>
@@ -77,51 +53,15 @@
     <t>city</t>
   </si>
   <si>
-    <t>lat</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>26.9035788</t>
-  </si>
-  <si>
-    <t>70.8947302</t>
-  </si>
-  <si>
-    <t>26.2703528</t>
-  </si>
-  <si>
-    <t>73.0305433</t>
-  </si>
-  <si>
-    <t>24.5872025</t>
-  </si>
-  <si>
-    <t>73.7108014</t>
-  </si>
-  <si>
     <t>Udaipur</t>
   </si>
   <si>
     <t>Pondicherry</t>
   </si>
   <si>
-    <t>11.931720</t>
-  </si>
-  <si>
-    <t>79.833836</t>
-  </si>
-  <si>
     <t>Kochin</t>
   </si>
   <si>
-    <t>9.953967</t>
-  </si>
-  <si>
-    <t>76.255610</t>
-  </si>
-  <si>
     <t>Jaisalmer</t>
   </si>
   <si>
@@ -131,10 +71,982 @@
     <t>Saigon</t>
   </si>
   <si>
-    <t>10.768451</t>
-  </si>
-  <si>
-    <t>106.6943626</t>
+    <t>Mui Ne</t>
+  </si>
+  <si>
+    <t>Halong Bay</t>
+  </si>
+  <si>
+    <t>Koh Chang</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Chiang Mai</t>
+  </si>
+  <si>
+    <t>Pai</t>
+  </si>
+  <si>
+    <t>Luang Prabang</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Vientiane</t>
+  </si>
+  <si>
+    <t>Si Phan Don</t>
+  </si>
+  <si>
+    <t>Phnom Penh</t>
+  </si>
+  <si>
+    <t>Koh Samui</t>
+  </si>
+  <si>
+    <t>Kuching</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Ninh Binh</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Bandar Seri Begawan</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Chiang Rai</t>
+  </si>
+  <si>
+    <t>Kep</t>
+  </si>
+  <si>
+    <t>Huay Xai</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Mawlamyine</t>
+  </si>
+  <si>
+    <t>Danang</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Riong</t>
+  </si>
+  <si>
+    <t>Seminyak</t>
+  </si>
+  <si>
+    <t>Nusa Lembongan</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Unawatuna</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Sigiryia</t>
+  </si>
+  <si>
+    <t>Polonnaruwa</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Nikko</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>Kamakura</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Marrakech</t>
+  </si>
+  <si>
+    <t>Marocco</t>
+  </si>
+  <si>
+    <t>Essaouira</t>
+  </si>
+  <si>
+    <t>Tanger</t>
+  </si>
+  <si>
+    <t>Ceuta</t>
+  </si>
+  <si>
+    <t>Ouarzazate</t>
+  </si>
+  <si>
+    <t>Rabat</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Geneva</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Stratford</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Death Valley</t>
+  </si>
+  <si>
+    <t>Monument Valley</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>French Guana</t>
+  </si>
+  <si>
+    <t>Siem Reap</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Penang</t>
+  </si>
+  <si>
+    <t>Ayutthaya</t>
+  </si>
+  <si>
+    <t>Cantho</t>
+  </si>
+  <si>
+    <t>Chaudoc</t>
+  </si>
+  <si>
+    <t>Gingee</t>
+  </si>
+  <si>
+    <t>Tanjor</t>
+  </si>
+  <si>
+    <t>Yangon</t>
+  </si>
+  <si>
+    <t>Bagan</t>
+  </si>
+  <si>
+    <t>Kalaw</t>
+  </si>
+  <si>
+    <t>Inle</t>
+  </si>
+  <si>
+    <t>Hoi An</t>
+  </si>
+  <si>
+    <t>Sapa</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Yojakarta</t>
+  </si>
+  <si>
+    <t>Bromo</t>
+  </si>
+  <si>
+    <t>Ijen</t>
+  </si>
+  <si>
+    <t>Ubud</t>
+  </si>
+  <si>
+    <t>Gili</t>
+  </si>
+  <si>
+    <t>Kuta</t>
+  </si>
+  <si>
+    <t>Bima</t>
+  </si>
+  <si>
+    <t>Ende</t>
+  </si>
+  <si>
+    <t>Moni</t>
+  </si>
+  <si>
+    <t>Bajawa</t>
+  </si>
+  <si>
+    <t>Rinca</t>
+  </si>
+  <si>
+    <t>Amed</t>
+  </si>
+  <si>
+    <t>Colombo</t>
+  </si>
+  <si>
+    <t>Mirisa</t>
+  </si>
+  <si>
+    <t>Nuwara Elyia </t>
+  </si>
+  <si>
+    <t>Arugam Bay </t>
+  </si>
+  <si>
+    <t>Hatton</t>
+  </si>
+  <si>
+    <t>Port Blair</t>
+  </si>
+  <si>
+    <t>Havelock</t>
+  </si>
+  <si>
+    <t>Petra</t>
+  </si>
+  <si>
+    <t>Wadi Rum</t>
+  </si>
+  <si>
+    <t>Deadsea</t>
+  </si>
+  <si>
+    <t>Luxor</t>
+  </si>
+  <si>
+    <t>Esna</t>
+  </si>
+  <si>
+    <t>Mombasa</t>
+  </si>
+  <si>
+    <t>Nakuru</t>
+  </si>
+  <si>
+    <t>Masaimara</t>
+  </si>
+  <si>
+    <t>Turin</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Venise</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Grenoble</t>
+  </si>
+  <si>
+    <t>Cholet</t>
+  </si>
+  <si>
+    <t>Palavas-Les-Flots</t>
+  </si>
+  <si>
+    <t>Corsica</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Athene</t>
+  </si>
+  <si>
+    <t>Rhodes</t>
+  </si>
+  <si>
+    <t>Uk</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>Bath</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Manchester</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Dublin</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Las Vegas</t>
+  </si>
+  <si>
+    <t>Cancun</t>
+  </si>
+  <si>
+    <t>Chichen Itza</t>
+  </si>
+  <si>
+    <t>Antigua</t>
+  </si>
+  <si>
+    <t>Atitlan</t>
+  </si>
+  <si>
+    <t>Tikal</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Medellin</t>
+  </si>
+  <si>
+    <t>Pandi</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Ciudad Bolivar</t>
+  </si>
+  <si>
+    <t>Tepui</t>
+  </si>
+  <si>
+    <t>Canaima</t>
+  </si>
+  <si>
+    <t>Orinoco</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>Kuru</t>
+  </si>
+  <si>
+    <t>Seychelle</t>
+  </si>
+  <si>
+    <t>Maurice</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Yiwu</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Manila</t>
+  </si>
+  <si>
+    <t>Alona beach, Bohol</t>
+  </si>
+  <si>
+    <t>Sabang, Palawan</t>
+  </si>
+  <si>
+    <t>El Nido, Palawan</t>
+  </si>
+  <si>
+    <t>Coron Town</t>
+  </si>
+  <si>
+    <t>Tagaytay</t>
+  </si>
+  <si>
+    <t>Puerto Galera</t>
+  </si>
+  <si>
+    <t>4.903052199999999, 114.93982099999994</t>
+  </si>
+  <si>
+    <t>13.3670968, 103.84481340000002</t>
+  </si>
+  <si>
+    <t>11.5448729, 104.89216680000004</t>
+  </si>
+  <si>
+    <t>9.5120168, 100.01359290000005</t>
+  </si>
+  <si>
+    <t>10.536089, 104.35591580000005</t>
+  </si>
+  <si>
+    <t>31.230416, 121.473701</t>
+  </si>
+  <si>
+    <t>29.306757, 120.07514000000003</t>
+  </si>
+  <si>
+    <t>4.710988599999999, -74.072092</t>
+  </si>
+  <si>
+    <t>6.244203, -75.58121189999997</t>
+  </si>
+  <si>
+    <t>4.19065, -74.48675100000003</t>
+  </si>
+  <si>
+    <t>25.6872431, 32.639635699999985</t>
+  </si>
+  <si>
+    <t>Cebu city</t>
+  </si>
+  <si>
+    <t>25.2898918, 32.552230399999985</t>
+  </si>
+  <si>
+    <t>45.764043, 4.835658999999964</t>
+  </si>
+  <si>
+    <t>48.856614, 2.3522219000000177</t>
+  </si>
+  <si>
+    <t>44.837789, -0.5791799999999512</t>
+  </si>
+  <si>
+    <t>45.188529, 5.724523999999974</t>
+  </si>
+  <si>
+    <t>47.059407, -0.8797869999999648</t>
+  </si>
+  <si>
+    <t>43.528906, 3.9334929999999986</t>
+  </si>
+  <si>
+    <t>42.0396042, 9.012892599999986</t>
+  </si>
+  <si>
+    <t>4.92242, -52.313453100000004</t>
+  </si>
+  <si>
+    <t>5.1611312, -52.6493342</t>
+  </si>
+  <si>
+    <t>37.9838096, 23.727538800000048</t>
+  </si>
+  <si>
+    <t>28.7040592, 77.10249019999992</t>
+  </si>
+  <si>
+    <t>16.265, -61.55099999999999</t>
+  </si>
+  <si>
+    <t>36.4340533, 28.2176379</t>
+  </si>
+  <si>
+    <t>26.9157487, 70.90834429999995</t>
+  </si>
+  <si>
+    <t>14.6906713, -91.20252070000004</t>
+  </si>
+  <si>
+    <t>14.6349149, -90.5068824</t>
+  </si>
+  <si>
+    <t>27.1766701, 78.00807450000002</t>
+  </si>
+  <si>
+    <t>26.9124336, 75.78727090000007</t>
+  </si>
+  <si>
+    <t>17.2220409, -89.62369949999999</t>
+  </si>
+  <si>
+    <t>14.5585707, -90.72952299999997</t>
+  </si>
+  <si>
+    <t>26.2389469, 73.02430939999999</t>
+  </si>
+  <si>
+    <t>11.9760503, 92.98755649999998</t>
+  </si>
+  <si>
+    <t>-6.1744651, 106.82274499999994</t>
+  </si>
+  <si>
+    <t>11.9138598, 79.81447219999995</t>
+  </si>
+  <si>
+    <t>10.7869994, 79.13782739999999</t>
+  </si>
+  <si>
+    <t>-8.0583811, 114.24329899999998</t>
+  </si>
+  <si>
+    <t>-7.9424936, 112.95301219999999</t>
+  </si>
+  <si>
+    <t>11.6233774, 92.72648279999999</t>
+  </si>
+  <si>
+    <t>24.585445, 73.71247900000003</t>
+  </si>
+  <si>
+    <t>12.2524408, 79.41130720000001</t>
+  </si>
+  <si>
+    <t>9.9312328, 76.26730410000005</t>
+  </si>
+  <si>
+    <t>-7.7955798, 110.36948959999995</t>
+  </si>
+  <si>
+    <t>-8.348291699999999, 116.0384335</t>
+  </si>
+  <si>
+    <t>-7.782023, 110.4300389</t>
+  </si>
+  <si>
+    <t>-8.732907599999999, 119.66150549999998</t>
+  </si>
+  <si>
+    <t>-8.7514413, 121.85844759999998</t>
+  </si>
+  <si>
+    <t>-8.4642661, 118.74490279999998</t>
+  </si>
+  <si>
+    <t>-8.854053, 121.65419799999995</t>
+  </si>
+  <si>
+    <t>-8.792325, 120.960602</t>
+  </si>
+  <si>
+    <t>-8.6785828, 115.4555858</t>
+  </si>
+  <si>
+    <t>-8.5068536, 115.26247779999994</t>
+  </si>
+  <si>
+    <t>-8.691289399999999, 115.16816530000006</t>
+  </si>
+  <si>
+    <t>-8.739183599999999, 115.17112980000002</t>
+  </si>
+  <si>
+    <t>31.9453666, 35.92837159999999</t>
+  </si>
+  <si>
+    <t>53.3498053, -6.260309699999993</t>
+  </si>
+  <si>
+    <t>35.6894875, 139.69170639999993</t>
+  </si>
+  <si>
+    <t>41.9027835, 12.496365500000024</t>
+  </si>
+  <si>
+    <t>45.4654219, 9.18592430000001</t>
+  </si>
+  <si>
+    <t>35.3192254, 139.54668679999997</t>
+  </si>
+  <si>
+    <t>45.070312, 7.686856499999976</t>
+  </si>
+  <si>
+    <t>36.7199026, 139.69821609999997</t>
+  </si>
+  <si>
+    <t>-8.3352687, 115.65739699999995</t>
+  </si>
+  <si>
+    <t>35.3605555, 138.72777769999993</t>
+  </si>
+  <si>
+    <t>45.4408474, 12.31551509999997</t>
+  </si>
+  <si>
+    <t>-1.2920659, 36.82194619999996</t>
+  </si>
+  <si>
+    <t>29.534667, 35.40790870000001</t>
+  </si>
+  <si>
+    <t>-4.0434771, 39.6682065</t>
+  </si>
+  <si>
+    <t>30.3284544, 35.4443622</t>
+  </si>
+  <si>
+    <t>17.9757058, 102.63310350000006</t>
+  </si>
+  <si>
+    <t>20.262817, 100.43403669999998</t>
+  </si>
+  <si>
+    <t>-0.3030988, 36.080025999999975</t>
+  </si>
+  <si>
+    <t>31.5590287, 35.47318949999999</t>
+  </si>
+  <si>
+    <t>14.0470427, 105.83268279999993</t>
+  </si>
+  <si>
+    <t>-1.4065513, 34.906551000000036</t>
+  </si>
+  <si>
+    <t>19.8833959, 102.13468740000008</t>
+  </si>
+  <si>
+    <t>35.8893874, -5.321345500000007</t>
+  </si>
+  <si>
+    <t>35.7594651, -5.833954299999959</t>
+  </si>
+  <si>
+    <t>31.5084926, -9.759504099999958</t>
+  </si>
+  <si>
+    <t>2.194418, 102.24906299999998</t>
+  </si>
+  <si>
+    <t>5.4163459, 100.33276169999999</t>
+  </si>
+  <si>
+    <t>1.6076812, 110.37854379999999</t>
+  </si>
+  <si>
+    <t>33.9715904, -6.849812899999961</t>
+  </si>
+  <si>
+    <t>30.9335436, -6.937015999999971</t>
+  </si>
+  <si>
+    <t>-20.348404, 57.55215199999998</t>
+  </si>
+  <si>
+    <t>3.139003, 101.68685499999992</t>
+  </si>
+  <si>
+    <t>31.6294723, -7.981084499999952</t>
+  </si>
+  <si>
+    <t>10.1742503, 118.87133140000003</t>
+  </si>
+  <si>
+    <t>21.161908, -86.85152790000001</t>
+  </si>
+  <si>
+    <t>20.6842849, -88.56778259999999</t>
+  </si>
+  <si>
+    <t>16.4543173, 97.64396110000007</t>
+  </si>
+  <si>
+    <t>20.6176113, 96.56232509999995</t>
+  </si>
+  <si>
+    <t>20.5862914, 96.91018059999999</t>
+  </si>
+  <si>
+    <t>16.8660694, 96.19513200000006</t>
+  </si>
+  <si>
+    <t>9.5485549, 123.77403219999997</t>
+  </si>
+  <si>
+    <t>21.1717271, 94.8585458</t>
+  </si>
+  <si>
+    <t>10.3156992, 123.88543660000005</t>
+  </si>
+  <si>
+    <t>1.352083, 103.81983600000001</t>
+  </si>
+  <si>
+    <t>41.3850639, 2.1734034999999494</t>
+  </si>
+  <si>
+    <t>6.9270786, 79.86124300000006</t>
+  </si>
+  <si>
+    <t>-4.679574, 55.49197700000002</t>
+  </si>
+  <si>
+    <t>5.948262, 80.47158660000002</t>
+  </si>
+  <si>
+    <t>14.115286, 120.96211649999998</t>
+  </si>
+  <si>
+    <t>13.5018907, 120.95411999999999</t>
+  </si>
+  <si>
+    <t>11.997624, 120.20187740000006</t>
+  </si>
+  <si>
+    <t>6.017446899999999, 80.24885960000006</t>
+  </si>
+  <si>
+    <t>6.8666988, 81.04655300000002</t>
+  </si>
+  <si>
+    <t>11.2097089, 119.46225389999995</t>
+  </si>
+  <si>
+    <t>12.0479159, 102.32348159999992</t>
+  </si>
+  <si>
+    <t>13.7563309, 100.50176510000006</t>
+  </si>
+  <si>
+    <t>7.9568463, 80.75992369999994</t>
+  </si>
+  <si>
+    <t>7.940338400000001, 81.01879839999992</t>
+  </si>
+  <si>
+    <t>18.7060641, 98.98171630000002</t>
+  </si>
+  <si>
+    <t>46.2043907, 6.143157699999961</t>
+  </si>
+  <si>
+    <t>14.3692325, 100.5876634</t>
+  </si>
+  <si>
+    <t>6.900344199999999, 80.59660929999995</t>
+  </si>
+  <si>
+    <t>19.3582191, 98.44048629999998</t>
+  </si>
+  <si>
+    <t>6.840407799999999, 81.83684779999999</t>
+  </si>
+  <si>
+    <t>6.949716599999999, 80.78910680000001</t>
+  </si>
+  <si>
+    <t>51.5073509, -0.12775829999998223</t>
+  </si>
+  <si>
+    <t>52.19173, -1.7082980000000134</t>
+  </si>
+  <si>
+    <t>53.4083714, -2.9915726000000404</t>
+  </si>
+  <si>
+    <t>50.82253000000001, -0.13716299999998682</t>
+  </si>
+  <si>
+    <t>19.9104798, 99.84057600000006</t>
+  </si>
+  <si>
+    <t>53.4807593, -2.2426305000000184</t>
+  </si>
+  <si>
+    <t>52.205337, 0.12181699999996454</t>
+  </si>
+  <si>
+    <t>53.8175053, -3.035674800000038</t>
+  </si>
+  <si>
+    <t>51.375801, -2.359903900000063</t>
+  </si>
+  <si>
+    <t>51.7520209, -1.2577263000000585</t>
+  </si>
+  <si>
+    <t>53.193392, -2.8930749999999534</t>
+  </si>
+  <si>
+    <t>10.4805937, -66.90360629999998</t>
+  </si>
+  <si>
+    <t>37.7749295, -122.41941550000001</t>
+  </si>
+  <si>
+    <t>36.5322649, -116.93254079999997</t>
+  </si>
+  <si>
+    <t>36.1699412, -115.13982959999998</t>
+  </si>
+  <si>
+    <t>8.088279100000001, -63.553555200000005</t>
+  </si>
+  <si>
+    <t>4.993818, -60.60745199999997</t>
+  </si>
+  <si>
+    <t>5.5, -62</t>
+  </si>
+  <si>
+    <t>5.432982, -64.9895156</t>
+  </si>
+  <si>
+    <t>36.9980285, -110.09845740000003</t>
+  </si>
+  <si>
+    <t>34.0522342, -118.2436849</t>
+  </si>
+  <si>
+    <t>40.7127837, -74.00594130000002</t>
+  </si>
+  <si>
+    <t>22.3363608, 103.84378519999996</t>
+  </si>
+  <si>
+    <t>10.9332105, 108.28718370000001</t>
+  </si>
+  <si>
+    <t>16.4498, 107.5623501</t>
+  </si>
+  <si>
+    <t>20.2506149, 105.97445360000006</t>
+  </si>
+  <si>
+    <t>15.8800584, 108.3380469</t>
+  </si>
+  <si>
+    <t>16.0544068, 108.20216670000002</t>
+  </si>
+  <si>
+    <t>21.0277644, 105.83415979999995</t>
+  </si>
+  <si>
+    <t>10.0451618, 105.74685350000004</t>
+  </si>
+  <si>
+    <t>10.8230989, 106.6296638</t>
+  </si>
+  <si>
+    <t>20.9100512, 107.18390239999997</t>
+  </si>
+  <si>
+    <t>10.6820814, 105.0823967</t>
+  </si>
+  <si>
+    <t>14.5995124, 120.9842195</t>
+  </si>
+  <si>
+    <t>latlng</t>
   </si>
 </sst>
 </file>
@@ -176,7 +1088,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -184,6 +1107,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C155" totalsRowShown="0">
+  <autoFilter ref="A1:C155"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="country"/>
+    <tableColumn id="2" name="city"/>
+    <tableColumn id="3" name="latlng"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -449,172 +1384,1731 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" t="s">
+        <v>128</v>
+      </c>
+      <c r="C61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>53</v>
+      </c>
+      <c r="B64" t="s">
+        <v>52</v>
+      </c>
+      <c r="C64" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>53</v>
+      </c>
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>126</v>
+      </c>
+      <c r="C74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>60</v>
+      </c>
+      <c r="B83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>60</v>
+      </c>
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>60</v>
+      </c>
+      <c r="B86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>36</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="C93" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>36</v>
+      </c>
+      <c r="B95" t="s">
+        <v>37</v>
+      </c>
+      <c r="C95" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>176</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>181</v>
+      </c>
+      <c r="C99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>176</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+      <c r="C102" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>176</v>
+      </c>
+      <c r="B103" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>176</v>
+      </c>
+      <c r="B104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" t="s">
+        <v>170</v>
+      </c>
+      <c r="C105" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>67</v>
+      </c>
+      <c r="C107" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B108" t="s">
+        <v>116</v>
+      </c>
+      <c r="C108" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>44</v>
+      </c>
+      <c r="B109" t="s">
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>44</v>
+      </c>
+      <c r="B110" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>117</v>
+      </c>
+      <c r="C111" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>48</v>
+      </c>
+      <c r="C114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>44</v>
+      </c>
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="C115" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>44</v>
+      </c>
+      <c r="B116" t="s">
+        <v>45</v>
+      </c>
+      <c r="C116" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>132</v>
+      </c>
+      <c r="B117" t="s">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>89</v>
+      </c>
+      <c r="C118" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>17</v>
+      </c>
+      <c r="B119" t="s">
+        <v>30</v>
+      </c>
+      <c r="C119" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>17</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>17</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>17</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>17</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>142</v>
+      </c>
+      <c r="B125" t="s">
+        <v>150</v>
+      </c>
+      <c r="C125" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>72</v>
+      </c>
+      <c r="C126" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" t="s">
+        <v>145</v>
+      </c>
+      <c r="C127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>142</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B129" t="s">
+        <v>147</v>
+      </c>
+      <c r="C129" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>142</v>
+      </c>
+      <c r="B130" t="s">
+        <v>143</v>
+      </c>
+      <c r="C130" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>142</v>
+      </c>
+      <c r="B131" t="s">
+        <v>148</v>
+      </c>
+      <c r="C131" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>144</v>
+      </c>
+      <c r="C132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>152</v>
+      </c>
+      <c r="B134" t="s">
+        <v>78</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>76</v>
+      </c>
+      <c r="C136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>152</v>
+      </c>
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>152</v>
+      </c>
+      <c r="B138" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>166</v>
+      </c>
+      <c r="C140" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>163</v>
+      </c>
+      <c r="C141" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" t="s">
+        <v>164</v>
+      </c>
+      <c r="C142" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>167</v>
+      </c>
+      <c r="C143" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" t="s">
+        <v>165</v>
+      </c>
+      <c r="C144" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>38</v>
+      </c>
+      <c r="C147" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>98</v>
+      </c>
+      <c r="C150" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>39</v>
+      </c>
+      <c r="C151" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="C152" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B153" t="s">
+        <v>29</v>
+      </c>
+      <c r="C153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C154" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
+      <c r="B155" t="s">
+        <v>99</v>
+      </c>
+      <c r="C155" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C155">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/map_project/list.xlsx
+++ b/map_project/list.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="343">
   <si>
     <t>Vietnam</t>
   </si>
@@ -1047,6 +1047,15 @@
   </si>
   <si>
     <t>latlng</t>
+  </si>
+  <si>
+    <t>Brussels</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>50.850346, 4.351721</t>
   </si>
 </sst>
 </file>
@@ -1088,18 +1097,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1110,8 +1108,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C155" totalsRowShown="0">
-  <autoFilter ref="A1:C155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C156" totalsRowShown="0">
+  <autoFilter ref="A1:C156"/>
   <tableColumns count="3">
     <tableColumn id="1" name="country"/>
     <tableColumn id="2" name="city"/>
@@ -1384,10 +1382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3102,6 +3100,17 @@
         <v>327</v>
       </c>
     </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>341</v>
+      </c>
+      <c r="B156" t="s">
+        <v>340</v>
+      </c>
+      <c r="C156" t="s">
+        <v>342</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C155">
     <sortCondition ref="A1"/>
